--- a/System Architecture/Article.xlsx
+++ b/System Architecture/Article.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -53,9 +51,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -83,22 +81,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,6 +111,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -121,59 +127,66 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -183,6 +196,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -190,29 +210,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,31 +225,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,19 +363,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,121 +399,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,67 +419,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,6 +454,62 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -523,142 +521,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1101,38 +1099,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/System Architecture/Article.xlsx
+++ b/System Architecture/Article.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19470" windowHeight="7845"/>
+    <workbookView windowWidth="19410" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Browser Caching</t>
   </si>
@@ -45,16 +45,22 @@
   <si>
     <t>https://www.youtube.com/watch?v=BHqjEjzAicA</t>
   </si>
+  <si>
+    <t>Process Vs Thread</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4rLW7zg21gI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -82,6 +88,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,7 +109,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,11 +147,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,96 +221,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -225,181 +231,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,6 +422,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -452,32 +473,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -510,6 +505,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -524,141 +530,141 @@
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -666,7 +672,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -677,6 +683,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1027,13 +1036,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="54" style="1" customWidth="1"/>
     <col min="2" max="2" width="124.1" style="1" customWidth="1"/>
@@ -1088,12 +1097,21 @@
         <v>9</v>
       </c>
     </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://medium.com/@codebyamir/a-web-developers-guide-to-browser-caching-cc41f3b73e7c"/>
     <hyperlink ref="B4" r:id="rId2" display="https://www.youtube.com/watch?v=dGAgxozNWFE"/>
     <hyperlink ref="B8" r:id="rId3" display="https://www.youtube.com/watch?v=BHqjEjzAicA"/>
     <hyperlink ref="B5" r:id="rId4" display="https://medium.com/design-microservices-architecture-with-patterns/monolithic-to-microservices-architecture-with-patterns-best-practices-a768272797b2"/>
+    <hyperlink ref="B10" r:id="rId5" display="https://www.youtube.com/watch?v=4rLW7zg21gI"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/System Architecture/Article.xlsx
+++ b/System Architecture/Article.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19410" windowHeight="7665"/>
+    <workbookView windowWidth="19470" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Browser Caching</t>
   </si>
@@ -50,6 +50,18 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=4rLW7zg21gI</t>
+  </si>
+  <si>
+    <t>SOLID Principles</t>
+  </si>
+  <si>
+    <t>https://blog.bytebytego.com/p/mastering-design-principles-solid</t>
+  </si>
+  <si>
+    <t>CAP KISS SOLID</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cTyZ_hbmbDw</t>
   </si>
 </sst>
 </file>
@@ -57,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -86,6 +98,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -93,8 +128,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,120 +233,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -231,61 +243,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,13 +381,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,19 +393,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,79 +417,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,17 +437,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,6 +486,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -483,21 +510,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -527,142 +539,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -672,7 +684,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -683,6 +695,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
@@ -1036,10 +1051,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1069,7 +1084,7 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1093,7 +1108,7 @@
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1101,8 +1116,24 @@
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1112,6 +1143,8 @@
     <hyperlink ref="B8" r:id="rId3" display="https://www.youtube.com/watch?v=BHqjEjzAicA"/>
     <hyperlink ref="B5" r:id="rId4" display="https://medium.com/design-microservices-architecture-with-patterns/monolithic-to-microservices-architecture-with-patterns-best-practices-a768272797b2"/>
     <hyperlink ref="B10" r:id="rId5" display="https://www.youtube.com/watch?v=4rLW7zg21gI"/>
+    <hyperlink ref="B13" r:id="rId6" display="https://blog.bytebytego.com/p/mastering-design-principles-solid"/>
+    <hyperlink ref="B16" r:id="rId7" display="https://www.youtube.com/watch?v=cTyZ_hbmbDw"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/System Architecture/Article.xlsx
+++ b/System Architecture/Article.xlsx
@@ -14,7 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+  <si>
+    <t>Caching</t>
+  </si>
+  <si>
+    <t>Caching Overview</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dGAgxozNWFE</t>
+  </si>
   <si>
     <t>Browser Caching</t>
   </si>
@@ -25,12 +34,6 @@
     <t>System Design</t>
   </si>
   <si>
-    <t>Caching Overview</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=dGAgxozNWFE</t>
-  </si>
-  <si>
     <t>Monolithic to Microservices Architecture with Patterns &amp; Best Practices</t>
   </si>
   <si>
@@ -52,6 +55,15 @@
     <t>https://www.youtube.com/watch?v=4rLW7zg21gI</t>
   </si>
   <si>
+    <t>Consistent Hashing</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UF9Iqmg94tk</t>
+  </si>
+  <si>
+    <t>Principles</t>
+  </si>
+  <si>
     <t>SOLID Principles</t>
   </si>
   <si>
@@ -62,6 +74,9 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=cTyZ_hbmbDw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kF7rQmSRlq0</t>
   </si>
 </sst>
 </file>
@@ -69,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -83,24 +98,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF002060"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,7 +143,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -121,8 +174,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,11 +221,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,81 +246,6 @@
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -243,187 +258,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,21 +449,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -470,6 +470,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -485,17 +500,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,191 +528,201 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1051,100 +1072,150 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="54" style="1" customWidth="1"/>
+    <col min="1" max="1" width="61.8" style="1" customWidth="1"/>
     <col min="2" max="2" width="124.1" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6"/>
+    </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>13</v>
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="https://medium.com/@codebyamir/a-web-developers-guide-to-browser-caching-cc41f3b73e7c"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://www.youtube.com/watch?v=dGAgxozNWFE"/>
-    <hyperlink ref="B8" r:id="rId3" display="https://www.youtube.com/watch?v=BHqjEjzAicA"/>
-    <hyperlink ref="B5" r:id="rId4" display="https://medium.com/design-microservices-architecture-with-patterns/monolithic-to-microservices-architecture-with-patterns-best-practices-a768272797b2"/>
-    <hyperlink ref="B10" r:id="rId5" display="https://www.youtube.com/watch?v=4rLW7zg21gI"/>
-    <hyperlink ref="B13" r:id="rId6" display="https://blog.bytebytego.com/p/mastering-design-principles-solid"/>
-    <hyperlink ref="B16" r:id="rId7" display="https://www.youtube.com/watch?v=cTyZ_hbmbDw"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://medium.com/@codebyamir/a-web-developers-guide-to-browser-caching-cc41f3b73e7c"/>
+    <hyperlink ref="B9" r:id="rId2" display="https://www.youtube.com/watch?v=BHqjEjzAicA"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://medium.com/design-microservices-architecture-with-patterns/monolithic-to-microservices-architecture-with-patterns-best-practices-a768272797b2"/>
+    <hyperlink ref="B10" r:id="rId4" display="https://www.youtube.com/watch?v=4rLW7zg21gI"/>
+    <hyperlink ref="B14" r:id="rId5" display="https://blog.bytebytego.com/p/mastering-design-principles-solid"/>
+    <hyperlink ref="B15" r:id="rId6" display="https://www.youtube.com/watch?v=cTyZ_hbmbDw"/>
+    <hyperlink ref="B16" r:id="rId7" display="https://www.youtube.com/watch?v=kF7rQmSRlq0"/>
+    <hyperlink ref="B2" r:id="rId8" display="https://www.youtube.com/watch?v=dGAgxozNWFE"/>
+    <hyperlink ref="B11" r:id="rId9" display="https://www.youtube.com/watch?v=UF9Iqmg94tk"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/System Architecture/Article.xlsx
+++ b/System Architecture/Article.xlsx
@@ -84,12 +84,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,7 +98,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF002060"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -106,7 +113,7 @@
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -114,10 +121,49 @@
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -130,12 +176,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -144,62 +243,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,23 +257,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,13 +267,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,19 +281,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,13 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,145 +461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,24 +472,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -481,6 +486,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,11 +525,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,9 +549,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,174 +577,171 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1075,10 +1095,10 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B22" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="61.8" style="1" customWidth="1"/>
     <col min="2" max="2" width="124.1" style="1" customWidth="1"/>
@@ -1147,7 +1167,7 @@
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1155,7 +1175,7 @@
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1173,7 +1193,7 @@
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1181,7 +1201,7 @@
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1189,7 +1209,7 @@
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>20</v>
       </c>
     </row>

--- a/System Architecture/Article.xlsx
+++ b/System Architecture/Article.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Caching</t>
   </si>
@@ -43,12 +43,6 @@
     <t>Distributed System</t>
   </si>
   <si>
-    <t>CAP Theorem</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=BHqjEjzAicA</t>
-  </si>
-  <si>
     <t>Process Vs Thread</t>
   </si>
   <si>
@@ -77,6 +71,21 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=kF7rQmSRlq0</t>
+  </si>
+  <si>
+    <t>Short polling, Long polling &amp; Web Sockets</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZBM28ZPlin8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pnj3Jbho5Ck</t>
+  </si>
+  <si>
+    <t>Web Hooks</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oQaJn6RdA3g</t>
   </si>
 </sst>
 </file>
@@ -85,9 +94,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -100,39 +109,132 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="C059"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF002060"/>
-      <name val="Calibri"/>
+      <name val="C059"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="C059"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="C059"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,15 +247,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,35 +255,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -197,76 +268,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,49 +284,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,133 +458,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,6 +475,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -492,42 +543,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,26 +569,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,152 +580,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -735,14 +738,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1092,26 +1101,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="61.8" style="1" customWidth="1"/>
     <col min="2" max="2" width="124.1" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" s="1" customFormat="1" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1119,123 +1128,134 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:2">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="6" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-    </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://medium.com/@codebyamir/a-web-developers-guide-to-browser-caching-cc41f3b73e7c"/>
-    <hyperlink ref="B9" r:id="rId2" display="https://www.youtube.com/watch?v=BHqjEjzAicA"/>
-    <hyperlink ref="B6" r:id="rId3" display="https://medium.com/design-microservices-architecture-with-patterns/monolithic-to-microservices-architecture-with-patterns-best-practices-a768272797b2"/>
-    <hyperlink ref="B10" r:id="rId4" display="https://www.youtube.com/watch?v=4rLW7zg21gI"/>
-    <hyperlink ref="B14" r:id="rId5" display="https://blog.bytebytego.com/p/mastering-design-principles-solid"/>
-    <hyperlink ref="B15" r:id="rId6" display="https://www.youtube.com/watch?v=cTyZ_hbmbDw"/>
-    <hyperlink ref="B16" r:id="rId7" display="https://www.youtube.com/watch?v=kF7rQmSRlq0"/>
-    <hyperlink ref="B2" r:id="rId8" display="https://www.youtube.com/watch?v=dGAgxozNWFE"/>
-    <hyperlink ref="B11" r:id="rId9" display="https://www.youtube.com/watch?v=UF9Iqmg94tk"/>
+    <hyperlink ref="B6" r:id="rId2" display="https://medium.com/design-microservices-architecture-with-patterns/monolithic-to-microservices-architecture-with-patterns-best-practices-a768272797b2"/>
+    <hyperlink ref="B9" r:id="rId3" display="https://www.youtube.com/watch?v=4rLW7zg21gI"/>
+    <hyperlink ref="B13" r:id="rId4" display="https://blog.bytebytego.com/p/mastering-design-principles-solid"/>
+    <hyperlink ref="B14" r:id="rId5" display="https://www.youtube.com/watch?v=cTyZ_hbmbDw"/>
+    <hyperlink ref="B15" r:id="rId6" display="https://www.youtube.com/watch?v=kF7rQmSRlq0"/>
+    <hyperlink ref="B10" r:id="rId7" display="https://www.youtube.com/watch?v=UF9Iqmg94tk"/>
+    <hyperlink ref="B17" r:id="rId8" display="https://www.youtube.com/watch?v=ZBM28ZPlin8"/>
+    <hyperlink ref="B18" r:id="rId9" display="https://www.youtube.com/watch?v=pnj3Jbho5Ck"/>
+    <hyperlink ref="B2" r:id="rId10" display="https://www.youtube.com/watch?v=dGAgxozNWFE"/>
+    <hyperlink ref="B20" r:id="rId11" display="https://www.youtube.com/watch?v=oQaJn6RdA3g"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/System Architecture/Article.xlsx
+++ b/System Architecture/Article.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Caching</t>
   </si>
@@ -58,16 +58,13 @@
     <t>Principles</t>
   </si>
   <si>
+    <t>CAP KISS SOLID</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cTyZ_hbmbDw</t>
+  </si>
+  <si>
     <t>SOLID Principles</t>
-  </si>
-  <si>
-    <t>https://blog.bytebytego.com/p/mastering-design-principles-solid</t>
-  </si>
-  <si>
-    <t>CAP KISS SOLID</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cTyZ_hbmbDw</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=kF7rQmSRlq0</t>
@@ -93,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -146,13 +143,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -161,75 +151,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -239,6 +160,67 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -247,15 +229,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,37 +287,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,139 +443,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,41 +484,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,6 +520,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -575,144 +557,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1101,16 +1098,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="61.8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="124.1" style="1" customWidth="1"/>
+    <col min="2" max="2" width="124.096296296296" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1207,40 +1204,32 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="B16" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="8"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
+      <c r="B19" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1248,14 +1237,13 @@
     <hyperlink ref="B3" r:id="rId1" display="https://medium.com/@codebyamir/a-web-developers-guide-to-browser-caching-cc41f3b73e7c"/>
     <hyperlink ref="B6" r:id="rId2" display="https://medium.com/design-microservices-architecture-with-patterns/monolithic-to-microservices-architecture-with-patterns-best-practices-a768272797b2"/>
     <hyperlink ref="B9" r:id="rId3" display="https://www.youtube.com/watch?v=4rLW7zg21gI"/>
-    <hyperlink ref="B13" r:id="rId4" display="https://blog.bytebytego.com/p/mastering-design-principles-solid"/>
-    <hyperlink ref="B14" r:id="rId5" display="https://www.youtube.com/watch?v=cTyZ_hbmbDw"/>
-    <hyperlink ref="B15" r:id="rId6" display="https://www.youtube.com/watch?v=kF7rQmSRlq0"/>
-    <hyperlink ref="B10" r:id="rId7" display="https://www.youtube.com/watch?v=UF9Iqmg94tk"/>
-    <hyperlink ref="B17" r:id="rId8" display="https://www.youtube.com/watch?v=ZBM28ZPlin8"/>
-    <hyperlink ref="B18" r:id="rId9" display="https://www.youtube.com/watch?v=pnj3Jbho5Ck"/>
-    <hyperlink ref="B2" r:id="rId10" display="https://www.youtube.com/watch?v=dGAgxozNWFE"/>
-    <hyperlink ref="B20" r:id="rId11" display="https://www.youtube.com/watch?v=oQaJn6RdA3g"/>
+    <hyperlink ref="B13" r:id="rId4" display="https://www.youtube.com/watch?v=cTyZ_hbmbDw"/>
+    <hyperlink ref="B14" r:id="rId5" display="https://www.youtube.com/watch?v=kF7rQmSRlq0"/>
+    <hyperlink ref="B10" r:id="rId6" display="https://www.youtube.com/watch?v=UF9Iqmg94tk"/>
+    <hyperlink ref="B16" r:id="rId7" display="https://www.youtube.com/watch?v=ZBM28ZPlin8"/>
+    <hyperlink ref="B17" r:id="rId8" display="https://www.youtube.com/watch?v=pnj3Jbho5Ck"/>
+    <hyperlink ref="B2" r:id="rId9" display="https://www.youtube.com/watch?v=dGAgxozNWFE"/>
+    <hyperlink ref="B19" r:id="rId10" display="https://www.youtube.com/watch?v=oQaJn6RdA3g"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
